--- a/Парсинг/пользователи.xlsx
+++ b/Парсинг/пользователи.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrbon\OneDrive\Desktop\bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrbon\Desktop\telegram_bot\Парсинг\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6916B337-8BB6-484F-BDC1-60054B883B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABB989B-BA44-4C50-8BEC-7455176B65E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Вера 0102</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Уникальный код</t>
+  </si>
+  <si>
+    <t>Ирина 2006</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,14 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{D655B96D-D4D7-44A0-AFC2-0DF02F945899}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -559,20 +569,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -582,8 +593,11 @@
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,8 +607,11 @@
       <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -604,8 +621,11 @@
       <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -615,8 +635,11 @@
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -626,8 +649,11 @@
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -637,8 +663,11 @@
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -648,8 +677,11 @@
       <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -659,8 +691,11 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -670,8 +705,11 @@
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -681,8 +719,11 @@
       <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -692,8 +733,11 @@
       <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -703,8 +747,11 @@
       <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -714,8 +761,11 @@
       <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -725,8 +775,11 @@
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -736,8 +789,11 @@
       <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -747,8 +803,11 @@
       <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -758,8 +817,11 @@
       <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -769,19 +831,27 @@
       <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A18">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>INDEX($D2:$AG2, 1, MATCH($A$2, $D$2:$AG$2, 0))=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>INDEX($C19:$AF19, 1, MATCH($A$1, $C$1:$AF$1, 0))=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D18">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>INDEX($C19:$AF19, 1, MATCH($A$1, $C$1:$AF$1, 0))=""</formula>
+      <formula>INDEX($D2:$AG2, 1, MATCH($A$2, $D$2:$AG$2, 0))=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
